--- a/IPC2024_base2010/imputacion/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_4_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>192.9454838999896</v>
+        <v>192.9442620826847</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.4678663233491</v>
+        <v>155.4672111865586</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.5301147301788</v>
+        <v>157.5261055138433</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>241.6987071766775</v>
+        <v>241.6926917295383</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.9676637248744</v>
+        <v>150.9704097627865</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>360.2864024035153</v>
+        <v>360.2845738640362</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>209.4223291691152</v>
+        <v>209.4150824559185</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>300.2461949761405</v>
+        <v>300.3214714207492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.556860229471</v>
+        <v>183.5531085774356</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>448.8823452807118</v>
+        <v>448.9553498561221</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>521.7269845565221</v>
+        <v>521.7131173446299</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.2829118112474</v>
+        <v>133.2830291974996</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>154.018656649613</v>
+        <v>154.0172056028974</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.6491203103629</v>
+        <v>145.6515939631513</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>125.4264370042039</v>
+        <v>125.4265063594359</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5461715794161</v>
+        <v>121.5459131005358</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.2715533262127</v>
+        <v>120.2714899403891</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>138.8364024506106</v>
+        <v>138.8365160708424</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7509230068592</v>
+        <v>140.7524726628406</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.5381224599708</v>
+        <v>122.5363960450671</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.8863313116883</v>
+        <v>134.8884997986678</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6203597138624</v>
+        <v>138.6152768832737</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3955451872329</v>
+        <v>137.411785578325</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9323604657645</v>
+        <v>126.9327983226843</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.2606269275563</v>
+        <v>185.2648228422628</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>113.3585741129442</v>
+        <v>113.3498536965874</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.47088791412571</v>
+        <v>92.47154895534864</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>128.9087749988776</v>
+        <v>128.9094205418048</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.5538684960053</v>
+        <v>154.5603399801809</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.4400895694194</v>
+        <v>130.4383893677954</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>138.0254802082972</v>
+        <v>138.0297660804278</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.9146688183363</v>
+        <v>142.9149504725177</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.3262244807647</v>
+        <v>148.3259008101964</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.7262368996378</v>
+        <v>183.7224450238573</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.7591767454172</v>
+        <v>144.7570414041664</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>130.5980255989237</v>
+        <v>130.5887906008876</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>172.9946207150593</v>
+        <v>172.9715289803526</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>150.5679982597691</v>
+        <v>150.5733100949561</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>153.3321239606261</v>
+        <v>153.3259068749626</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>360.1185877622244</v>
+        <v>360.2739264034346</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>199.1127260746281</v>
+        <v>199.0959176737934</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>421.3078849811478</v>
+        <v>421.5238046343906</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>348.56214856145</v>
+        <v>348.5242553245468</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>155.1819381115768</v>
+        <v>155.1824347038881</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>158.5627617649583</v>
+        <v>158.5722128439999</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>128.8984050487647</v>
+        <v>128.8985550808877</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.6049025396676</v>
+        <v>121.6046755495111</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4339616319419</v>
+        <v>148.4342919167751</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0239697633976</v>
+        <v>114.0191936449669</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8623625779793</v>
+        <v>144.8683265717344</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.3859548335117</v>
+        <v>140.3741025193235</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6800607789761</v>
+        <v>147.7268805157686</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5877505985031</v>
+        <v>123.5893126278566</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1591286634809</v>
+        <v>206.1672068399098</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.797433276306</v>
+        <v>112.7927863883887</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.32645426748721</v>
+        <v>90.32817575648032</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>137.0366100398895</v>
+        <v>137.0380873669879</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.2093586747187</v>
+        <v>158.2313049519235</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.9090021091046</v>
+        <v>141.9041423587158</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>153.5303893016889</v>
+        <v>153.540906601547</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>146.3304546415163</v>
+        <v>146.3310500128046</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>147.7033097683573</v>
+        <v>147.702666766561</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>111.2938047778635</v>
+        <v>111.2928344778627</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>111.383276752394</v>
+        <v>111.3798644228181</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>113.4010556265087</v>
+        <v>113.3903729255</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.0566291919473</v>
+        <v>119.054431503659</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>114.3052980265498</v>
+        <v>114.2925648385263</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>206.8217274465339</v>
+        <v>206.7904736664862</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>410.8530628879122</v>
+        <v>410.8612591548167</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.7614742230866</v>
+        <v>137.7525386645783</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.335286871566</v>
+        <v>111.3487187544259</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.9823605648984</v>
+        <v>114.9651186394464</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>115.1208204545391</v>
+        <v>115.1042129102524</v>
       </c>
     </row>
     <row r="2133" spans="1:4">

--- a/IPC2024_base2010/imputacion/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_4_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>192.9442620826847</v>
+        <v>192.9454838999896</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.4672111865586</v>
+        <v>155.4678663233491</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.5261055138433</v>
+        <v>157.5301147301788</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>241.6926917295383</v>
+        <v>241.6987071766775</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.9704097627865</v>
+        <v>150.9676637248744</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>360.2845738640362</v>
+        <v>360.2864024035153</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>209.4150824559185</v>
+        <v>209.4223291691152</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>300.3214714207492</v>
+        <v>300.2461949761405</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.5531085774356</v>
+        <v>183.556860229471</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>448.9553498561221</v>
+        <v>448.8823452807118</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>521.7131173446299</v>
+        <v>521.7269845565221</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.2830291974996</v>
+        <v>133.2829118112474</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>154.0172056028974</v>
+        <v>154.018656649613</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.6515939631513</v>
+        <v>145.6491203103629</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>125.4265063594359</v>
+        <v>125.4264370042039</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5459131005358</v>
+        <v>121.5461715794161</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.2714899403891</v>
+        <v>120.2715533262127</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>138.8365160708424</v>
+        <v>138.8364024506106</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7524726628406</v>
+        <v>140.7509230068592</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.5363960450671</v>
+        <v>122.5381224599708</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.8884997986678</v>
+        <v>134.8863313116883</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6152768832737</v>
+        <v>138.6203597138624</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.411785578325</v>
+        <v>137.3955451872329</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9327983226843</v>
+        <v>126.9323604657645</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.2648228422628</v>
+        <v>185.2606269275563</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>113.3498536965874</v>
+        <v>113.3585741129442</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3890,7 +3890,7 @@
         <v>199</v>
       </c>
       <c r="D189">
-        <v>137.1646762549656</v>
+        <v>136.948885738505</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4030,7 +4030,7 @@
         <v>209</v>
       </c>
       <c r="D199">
-        <v>124.2838612274319</v>
+        <v>122.8497247437674</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.47154895534864</v>
+        <v>92.47088791412571</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>98.63286827819456</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>99.33474177275022</v>
+        <v>88.12509564847501</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>111.9976098814931</v>
+        <v>114.0593770316369</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>112.1813079398574</v>
+        <v>107.2705203240392</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>209.5935776650692</v>
+        <v>193.6412043429439</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4478,7 +4478,7 @@
         <v>241</v>
       </c>
       <c r="D231">
-        <v>99.99999999999999</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>142.6806367386494</v>
+        <v>133.4288666704214</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>128.9094205418048</v>
+        <v>130.4521055386875</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>285.7863629634165</v>
+        <v>245.2244550580491</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4604,7 +4604,7 @@
         <v>250</v>
       </c>
       <c r="D240">
-        <v>107.3841642380476</v>
+        <v>107.5923082191586</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9457023050519</v>
+        <v>113.8092657772488</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.5603399801809</v>
+        <v>154.5538684960053</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>115.9891433481159</v>
+        <v>113.4619985190549</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4800,7 +4800,7 @@
         <v>264</v>
       </c>
       <c r="D254">
-        <v>119.2531338470616</v>
+        <v>111.7459749915843</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>117.7639966308485</v>
+        <v>125.6754496405006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.4383893677954</v>
+        <v>130.4400895694194</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>138.0297660804278</v>
+        <v>138.0254802082972</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>116.219629297443</v>
+        <v>119.3626348291464</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>143.3076869826964</v>
+        <v>149.8171837696557</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.9149504725177</v>
+        <v>142.9146688183363</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.3259008101964</v>
+        <v>148.3262244807647</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>110.5877231391034</v>
+        <v>106.8145247204661</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.7224450238573</v>
+        <v>183.7262368996378</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.7570414041664</v>
+        <v>144.7591767454172</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>130.5887906008876</v>
+        <v>130.5980255989237</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>172.9715289803526</v>
+        <v>172.9946207150593</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>150.5733100949561</v>
+        <v>150.5679982597691</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>153.3259068749626</v>
+        <v>153.3321239606261</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>360.2739264034346</v>
+        <v>360.1185877622244</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>199.0959176737934</v>
+        <v>199.1127260746281</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>421.5238046343906</v>
+        <v>421.3078849811478</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>348.5242553245468</v>
+        <v>348.56214856145</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>155.1824347038881</v>
+        <v>155.1819381115768</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>158.5722128439999</v>
+        <v>158.5627617649583</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>128.8985550808877</v>
+        <v>128.8984050487647</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.6046755495111</v>
+        <v>121.6049025396676</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4342919167751</v>
+        <v>148.4339616319419</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0191936449669</v>
+        <v>114.0239697633976</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8683265717344</v>
+        <v>144.8623625779793</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.3741025193235</v>
+        <v>140.3859548335117</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.7268805157686</v>
+        <v>147.6800607789761</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5893126278566</v>
+        <v>123.5877505985031</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1672068399098</v>
+        <v>206.1591286634809</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.7927863883887</v>
+        <v>112.797433276306</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7796,7 +7796,7 @@
         <v>199</v>
       </c>
       <c r="D468">
-        <v>133.5540176233022</v>
+        <v>133.3597894025565</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7936,7 +7936,7 @@
         <v>209</v>
       </c>
       <c r="D478">
-        <v>140.100577322387</v>
+        <v>138.7595652038151</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.32817575648032</v>
+        <v>90.32645426748721</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>128.9260466191205</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>89.65362919586212</v>
+        <v>79.53646938744659</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>111.9353641529143</v>
+        <v>113.99598541969</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>109.6635576064213</v>
+        <v>104.8629856529466</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>176.2200171812081</v>
+        <v>162.8077383689338</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8384,7 +8384,7 @@
         <v>241</v>
       </c>
       <c r="D510">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>144.4045120443767</v>
+        <v>133.885080212924</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>137.0380873669879</v>
+        <v>139.1291714824789</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>367.8579413441389</v>
+        <v>315.6475426941197</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8510,7 +8510,7 @@
         <v>250</v>
       </c>
       <c r="D519">
-        <v>107.4591606326993</v>
+        <v>107.6215630485739</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.2313049519235</v>
+        <v>158.2093586747187</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>115.7365038820636</v>
+        <v>113.2148635036936</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8706,7 +8706,7 @@
         <v>264</v>
       </c>
       <c r="D533">
-        <v>118.627589</v>
+        <v>111.1598091057845</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>118.5762053737496</v>
+        <v>126.5422230337815</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.9041423587158</v>
+        <v>141.9090021091046</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>153.540906601547</v>
+        <v>153.5303893016889</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>125.5143738702863</v>
+        <v>128.3931398620656</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>156.6099113199978</v>
+        <v>163.7236379874765</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>146.3310500128046</v>
+        <v>146.3304546415163</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>147.702666766561</v>
+        <v>147.7033097683573</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>112.4823083261619</v>
+        <v>108.6444675979728</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>111.2928344778627</v>
+        <v>111.2938047778635</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11702,7 +11702,7 @@
         <v>199</v>
       </c>
       <c r="D747">
-        <v>122.0193610239362</v>
+        <v>121.7102381163126</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -11842,7 +11842,7 @@
         <v>209</v>
       </c>
       <c r="D757">
-        <v>116.9320058541146</v>
+        <v>111.9613081376603</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>74.4982160789117</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>101.92255624965</v>
+        <v>90.42088254264164</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>88.79687193860505</v>
+        <v>90.4315360514576</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>109.5318407273826</v>
+        <v>104.7370347400056</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>114.2463140939597</v>
+        <v>105.5509147720589</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12290,7 +12290,7 @@
         <v>241</v>
       </c>
       <c r="D789">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>134.5756560324925</v>
+        <v>129.7916830308182</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>118.7453387610152</v>
+        <v>119.7948904793494</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>188.301233612304</v>
+        <v>161.5754751924487</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>250</v>
       </c>
       <c r="D798">
-        <v>106.0553155154627</v>
+        <v>107.1805899465235</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6496016872086</v>
+        <v>102.5041594642034</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>121.7738386752327</v>
+        <v>119.120658232306</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12612,7 +12612,7 @@
         <v>264</v>
       </c>
       <c r="D812">
-        <v>118.251332</v>
+        <v>110.8072380331758</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>109.4616057557012</v>
+        <v>116.8152993723668</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>87.31518506456764</v>
+        <v>91.05200506959433</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>136.1738115050478</v>
+        <v>142.3592646871031</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>94.13005727967222</v>
+        <v>90.91838628046798</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>111.3798644228181</v>
+        <v>111.383276752394</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -15608,7 +15608,7 @@
         <v>199</v>
       </c>
       <c r="D1026">
-        <v>154.4966351311095</v>
+        <v>153.9908061350224</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -15748,7 +15748,7 @@
         <v>209</v>
       </c>
       <c r="D1036">
-        <v>139.4064978710958</v>
+        <v>137.5859101332868</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>77.17242616281564</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>107.9457107739796</v>
+        <v>95.76434102543895</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>133.0961657220932</v>
+        <v>127.2698207244813</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>87.64840774964486</v>
+        <v>80.97740123747721</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16196,7 +16196,7 @@
         <v>241</v>
       </c>
       <c r="D1068">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>128.1629943461732</v>
+        <v>121.2881650633463</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>123.2089729192769</v>
+        <v>124.4805773828025</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>242.387753176867</v>
+        <v>207.9854478331106</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16322,7 +16322,7 @@
         <v>250</v>
       </c>
       <c r="D1077">
-        <v>107.3975386481192</v>
+        <v>107.5834971496167</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>119.2001577054959</v>
+        <v>116.6030520327295</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16518,7 +16518,7 @@
         <v>264</v>
       </c>
       <c r="D1091">
-        <v>125.6604545124253</v>
+        <v>117.7499454679747</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>125.4028319507431</v>
+        <v>133.8274663096259</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>113.6921631907036</v>
+        <v>116.6336539875095</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>142.0993694215497</v>
+        <v>148.553980532468</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>113.1655964680317</v>
+        <v>109.3044422863852</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>113.3903729255</v>
+        <v>113.4010556265087</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -19514,7 +19514,7 @@
         <v>199</v>
       </c>
       <c r="D1305">
-        <v>145.78551</v>
+        <v>145.5256616065095</v>
       </c>
     </row>
     <row r="1306" spans="1:4">
@@ -19654,7 +19654,7 @@
         <v>209</v>
       </c>
       <c r="D1315">
-        <v>115.3752304079984</v>
+        <v>114.420911671307</v>
       </c>
     </row>
     <row r="1316" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>93.87742531672933</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>96.46925695964839</v>
+        <v>98.24516222413247</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>107.3825503355705</v>
+        <v>99.20955882352941</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20102,7 +20102,7 @@
         <v>241</v>
       </c>
       <c r="D1347">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>140.1730720213926</v>
+        <v>132.8182759383668</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>116.7631595934386</v>
+        <v>117.7887709301284</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>135.7759713197292</v>
+        <v>116.5051692166293</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20228,7 +20228,7 @@
         <v>250</v>
       </c>
       <c r="D1356">
-        <v>110.653090558818</v>
+        <v>111.6113270557901</v>
       </c>
     </row>
     <row r="1357" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>108.3227151562478</v>
+        <v>105.9626047047431</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20424,7 +20424,7 @@
         <v>264</v>
       </c>
       <c r="D1370">
-        <v>121.0976902316696</v>
+        <v>113.4744138591893</v>
       </c>
     </row>
     <row r="1371" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>131.9517149176955</v>
+        <v>140.816307</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>98.9890400931337</v>
+        <v>102.5661942665636</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>165.6304325130152</v>
+        <v>173.153900311336</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>112.406969243806</v>
+        <v>108.5716990478456</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.054431503659</v>
+        <v>119.0566291919473</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>114.2925648385263</v>
+        <v>114.3052980265498</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23420,7 +23420,7 @@
         <v>199</v>
       </c>
       <c r="D1584">
-        <v>133.4486565590735</v>
+        <v>132.9620350163753</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
@@ -23560,7 +23560,7 @@
         <v>209</v>
       </c>
       <c r="D1594">
-        <v>103.1456267379469</v>
+        <v>102.7536638352079</v>
       </c>
     </row>
     <row r="1595" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>113.4460776780203</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>107.0739495795929</v>
+        <v>94.9909556290818</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>130.8704538614181</v>
+        <v>133.2796517271707</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>92.99597315436242</v>
+        <v>85.91795818014707</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24008,7 +24008,7 @@
         <v>241</v>
       </c>
       <c r="D1626">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1627" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>165.8527126235022</v>
+        <v>150.5967977101746</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>135.1855849485271</v>
+        <v>136.8420033026667</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>188.5027322071591</v>
+        <v>161.7483749158852</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24134,7 +24134,7 @@
         <v>250</v>
       </c>
       <c r="D1635">
-        <v>105.9807187631539</v>
+        <v>106.0771915589281</v>
       </c>
     </row>
     <row r="1636" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>103.2514765735866</v>
+        <v>101.0018571041788</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24330,7 +24330,7 @@
         <v>264</v>
       </c>
       <c r="D1649">
-        <v>116.1990194955424</v>
+        <v>108.8841215967377</v>
       </c>
     </row>
     <row r="1650" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>113.0690060518546</v>
+        <v>120.6650468947228</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>120.9125544395387</v>
+        <v>124.39898076199</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>115.372626366358</v>
+        <v>120.6132227115181</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>108.7182025914033</v>
+        <v>105.0087912892195</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>206.7904736664862</v>
+        <v>206.8217274465339</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>410.8612591548167</v>
+        <v>410.8530628879122</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.7525386645783</v>
+        <v>137.7614742230866</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.3487187544259</v>
+        <v>111.335286871566</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.9651186394464</v>
+        <v>114.9823605648984</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -27326,7 +27326,7 @@
         <v>199</v>
       </c>
       <c r="D1863">
-        <v>159.2960745104042</v>
+        <v>159.2029564637945</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
@@ -27466,7 +27466,7 @@
         <v>209</v>
       </c>
       <c r="D1873">
-        <v>123.8549681734975</v>
+        <v>123.4287773025582</v>
       </c>
     </row>
     <row r="1874" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>59.75154132349486</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>102.6280480242704</v>
+        <v>91.0467615554433</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>102.5801102549732</v>
+        <v>104.4685103896332</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>133.2301575774967</v>
+        <v>127.3979470256654</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>344.1608215995309</v>
+        <v>317.9664030006062</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27914,7 +27914,7 @@
         <v>241</v>
       </c>
       <c r="D1905">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1906" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>143.7466430898103</v>
+        <v>136.8930629584399</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>117.2784368302491</v>
+        <v>118.3629882491174</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>260.3783394228555</v>
+        <v>223.4226144725564</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28040,7 +28040,7 @@
         <v>250</v>
       </c>
       <c r="D1914">
-        <v>107.0573068000457</v>
+        <v>107.4326044536065</v>
       </c>
     </row>
     <row r="1915" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1303002123044</v>
+        <v>114.9703928250578</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>130.0869060617504</v>
+        <v>127.2526024149355</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28236,7 +28236,7 @@
         <v>264</v>
       </c>
       <c r="D1928">
-        <v>119.1681060118827</v>
+        <v>111.6662997827493</v>
       </c>
     </row>
     <row r="1929" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>115.1788423346107</v>
+        <v>122.9166231921407</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>109.3510458730288</v>
+        <v>112.4953052142315</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>139.1816978175244</v>
+        <v>145.5037788853467</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>95.81672205468443</v>
+        <v>92.54750288755346</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>115.1042129102524</v>
+        <v>115.1208204545391</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -31232,7 +31232,7 @@
         <v>199</v>
       </c>
       <c r="D2142">
-        <v>122.1006458270557</v>
+        <v>121.965525633816</v>
       </c>
     </row>
     <row r="2143" spans="1:4">
@@ -31372,7 +31372,7 @@
         <v>209</v>
       </c>
       <c r="D2152">
-        <v>110.222773</v>
+        <v>108.1445667041942</v>
       </c>
     </row>
     <row r="2153" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>60.73624991782287</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>95.41464926453649</v>
+        <v>84.64737455037704</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>121.2759678693398</v>
+        <v>123.5085405726276</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>101.4209764272408</v>
+        <v>96.98122720190548</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>201.3422818791946</v>
+        <v>186.0179227941176</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31820,7 +31820,7 @@
         <v>241</v>
       </c>
       <c r="D2184">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>115.3583141738976</v>
+        <v>113.7458660714125</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>127.6353167896191</v>
+        <v>128.3483968312304</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>111.0975969845057</v>
+        <v>95.32941808798503</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31946,7 +31946,7 @@
         <v>250</v>
       </c>
       <c r="D2193">
-        <v>109.1693633595296</v>
+        <v>109.2756613529944</v>
       </c>
     </row>
     <row r="2194" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>114.4612730980836</v>
+        <v>111.9674171552959</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32142,7 +32142,7 @@
         <v>264</v>
       </c>
       <c r="D2207">
-        <v>138.3043275472018</v>
+        <v>129.5978682383138</v>
       </c>
     </row>
     <row r="2208" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>114.326829832295</v>
+        <v>122.007372</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>102.0148294441361</v>
+        <v>106.3083038548968</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>122.8060157430823</v>
+        <v>128.3842605792814</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>108.6544451536056</v>
+        <v>104.9472092236661</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -35138,7 +35138,7 @@
         <v>199</v>
       </c>
       <c r="D2421">
-        <v>131.5052756772666</v>
+        <v>131.3424121102272</v>
       </c>
     </row>
     <row r="2422" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>68.24846415881358</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>106.1552426706517</v>
+        <v>94.17592220997281</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>107.8961206061705</v>
+        <v>109.882383324894</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>118.8865612557772</v>
+        <v>113.6822481360275</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>107.5424973415846</v>
+        <v>99.35733210561497</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35726,7 +35726,7 @@
         <v>241</v>
       </c>
       <c r="D2463">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2464" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>117.2700960464895</v>
+        <v>115.0344381846539</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>121.7911797399114</v>
+        <v>122.9048045493081</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>102.3454071798041</v>
+        <v>87.81943422042967</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35852,7 +35852,7 @@
         <v>250</v>
       </c>
       <c r="D2472">
-        <v>103.5344232448194</v>
+        <v>103.7454412302942</v>
       </c>
     </row>
     <row r="2473" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6282316450168</v>
+        <v>112.4722203542584</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>103.5092801495106</v>
+        <v>101.2540437149714</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36048,7 +36048,7 @@
         <v>264</v>
       </c>
       <c r="D2486">
-        <v>117.942533</v>
+        <v>110.5178783809952</v>
       </c>
     </row>
     <row r="2487" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>115.0782432142341</v>
+        <v>122.8092657650112</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>95.36095469410492</v>
+        <v>97.97189563408996</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>124.4749970313849</v>
+        <v>130.1290523740714</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>87.62247570992893</v>
+        <v>84.63284017534154</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/imputacion/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_4_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>192.9454838999896</v>
+        <v>192.9442620826847</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.4678663233491</v>
+        <v>155.4672111865586</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.5301147301788</v>
+        <v>157.5261055138433</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>241.6987071766775</v>
+        <v>241.6926917295383</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.9676637248744</v>
+        <v>150.9704097627865</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>360.2864024035153</v>
+        <v>360.2845738640362</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>209.4223291691152</v>
+        <v>209.4150824559185</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>300.2461949761405</v>
+        <v>300.3214714207492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.556860229471</v>
+        <v>183.5531085774356</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>448.8823452807118</v>
+        <v>448.9553498561221</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>521.7269845565221</v>
+        <v>521.7131173446299</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.2829118112474</v>
+        <v>133.2830291974996</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>154.018656649613</v>
+        <v>154.0172056028974</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.6491203103629</v>
+        <v>145.6515939631513</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>125.4264370042039</v>
+        <v>125.4265063594359</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5461715794161</v>
+        <v>121.5459131005358</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.2715533262127</v>
+        <v>120.2714899403891</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>138.8364024506106</v>
+        <v>138.8365160708424</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7509230068592</v>
+        <v>140.7524726628406</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.5381224599708</v>
+        <v>122.5363960450671</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.8863313116883</v>
+        <v>134.8884997986678</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6203597138624</v>
+        <v>138.6152768832737</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3955451872329</v>
+        <v>137.411785578325</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9323604657645</v>
+        <v>126.9327983226843</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.2606269275563</v>
+        <v>185.2648228422628</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>113.3585741129442</v>
+        <v>113.3498536965874</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.47088791412571</v>
+        <v>92.47154895534864</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>130.4521055386875</v>
+        <v>130.4527617208651</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.5538684960053</v>
+        <v>154.5603399801809</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.4400895694194</v>
+        <v>130.4383893677954</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>138.0254802082972</v>
+        <v>138.0297660804278</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.9146688183363</v>
+        <v>142.9149504725177</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.3262244807647</v>
+        <v>148.3259008101964</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.7262368996378</v>
+        <v>183.7224450238573</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.7591767454172</v>
+        <v>144.7570414041664</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>130.5980255989237</v>
+        <v>130.5887906008876</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>172.9946207150593</v>
+        <v>172.9715289803526</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>150.5679982597691</v>
+        <v>150.5733100949561</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>153.3321239606261</v>
+        <v>153.3259068749626</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>360.1185877622244</v>
+        <v>360.2739264034346</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>199.1127260746281</v>
+        <v>199.0959176737934</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>421.3078849811478</v>
+        <v>421.5238046343906</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>348.56214856145</v>
+        <v>348.5242553245468</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>155.1819381115768</v>
+        <v>155.1824347038881</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>158.5627617649583</v>
+        <v>158.5722128439999</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>128.8984050487647</v>
+        <v>128.8985550808877</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.6049025396676</v>
+        <v>121.6046755495111</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4339616319419</v>
+        <v>148.4342919167751</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0239697633976</v>
+        <v>114.0191936449669</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8623625779793</v>
+        <v>144.8683265717344</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.3859548335117</v>
+        <v>140.3741025193235</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6800607789761</v>
+        <v>147.7268805157686</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5877505985031</v>
+        <v>123.5893126278566</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1591286634809</v>
+        <v>206.1672068399098</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.797433276306</v>
+        <v>112.7927863883887</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.32645426748721</v>
+        <v>90.32817575648032</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>139.1291714824789</v>
+        <v>139.1306731575367</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.2093586747187</v>
+        <v>158.2313049519235</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.9090021091046</v>
+        <v>141.9041423587158</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>153.5303893016889</v>
+        <v>153.540906601547</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>146.3304546415163</v>
+        <v>146.3310500128046</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>147.7033097683573</v>
+        <v>147.702666766561</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>111.2938047778635</v>
+        <v>111.2928344778627</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>111.383276752394</v>
+        <v>111.3798644228181</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>113.4010556265087</v>
+        <v>113.3903729255</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.0566291919473</v>
+        <v>119.054431503659</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>114.3052980265498</v>
+        <v>114.2925648385263</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>206.8217274465339</v>
+        <v>206.7904736664862</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>410.8530628879122</v>
+        <v>410.8612591548167</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.7614742230866</v>
+        <v>137.7525386645783</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.335286871566</v>
+        <v>111.3487187544259</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.9823605648984</v>
+        <v>114.9651186394464</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>115.1208204545391</v>
+        <v>115.1042129102524</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
